--- a/cicat/cvss-example/SCENARIO-new-fake.xlsx
+++ b/cicat/cvss-example/SCENARIO-new-fake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="108">
   <si>
     <t xml:space="preserve">资产编号</t>
   </si>
@@ -267,6 +267,15 @@
     <t xml:space="preserve">Val</t>
   </si>
   <si>
+    <t xml:space="preserve">PR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
@@ -282,12 +291,21 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">S</t>
+    <t xml:space="preserve">R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
   </si>
   <si>
     <t xml:space="preserve">H</t>
   </si>
   <si>
+    <t xml:space="preserve">CVE-2018-1953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CVE-2021-2885</t>
+  </si>
+  <si>
     <t xml:space="preserve">威胁目标</t>
   </si>
   <si>
@@ -307,9 +325,6 @@
   </si>
   <si>
     <t xml:space="preserve">ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
   </si>
   <si>
     <t xml:space="preserve">POC</t>
@@ -367,7 +382,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,6 +393,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -415,12 +436,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -441,6 +466,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -451,8 +536,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="1" sqref="Q2:Q29 B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3809,8 +3894,8 @@
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="Q2:Q29 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4035,10 +4120,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P89"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4095,181 +4180,217 @@
       <c r="P1" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>72</v>
@@ -4281,19 +4402,28 @@
         <v>72</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4301,249 +4431,294 @@
         <v>47</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4551,275 +4726,320 @@
         <v>6</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>83</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>83</v>
-      </c>
       <c r="J13" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I16" s="0" t="s">
         <v>72</v>
@@ -4831,45 +5051,54 @@
         <v>72</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I17" s="0" t="s">
         <v>72</v>
@@ -4881,45 +5110,54 @@
         <v>72</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I18" s="0" t="s">
         <v>83</v>
@@ -4928,322 +5166,385 @@
         <v>83</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>72</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q20" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R20" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R21" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R22" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>85</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R23" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R24" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5251,75 +5552,84 @@
         <v>44</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q25" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R25" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I26" s="0" t="s">
         <v>72</v>
@@ -5331,73 +5641,207 @@
         <v>72</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="Q26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I27" s="0" t="s">
         <v>83</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>85</v>
+      </c>
+      <c r="Q27" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="R27" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="O28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R28" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="O29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="R29" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5476,36 +5920,36 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q2:Q29 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="0" t="s">
         <v>74</v>
       </c>
@@ -5514,94 +5958,94 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.35</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.56</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>90</v>
+      <c r="A11" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="0" t="s">
         <v>72</v>
       </c>
@@ -5610,56 +6054,56 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -5690,32 +6134,32 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q2:Q29 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,7 +6178,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.4</v>
@@ -5748,7 +6192,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.5</v>
@@ -5782,21 +6226,21 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="Q2:Q29 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5804,7 +6248,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -5815,7 +6259,7 @@
         <v>73</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.275</v>
@@ -5833,161 +6277,161 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>1.51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1.51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1.51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.87</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.95</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="0" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>

--- a/cicat/cvss-example/SCENARIO-new-fake.xlsx
+++ b/cicat/cvss-example/SCENARIO-new-fake.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="assets" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="108">
   <si>
     <t xml:space="preserve">资产编号</t>
   </si>
@@ -436,7 +436,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -455,6 +455,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -537,7 +541,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="1" sqref="Q2:Q29 B71"/>
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3892,10 +3896,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="Q2:Q29 C7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3914,7 +3918,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>37</v>
@@ -3925,12 +3929,12 @@
         <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>59</v>
@@ -3938,26 +3942,26 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3965,36 +3969,36 @@
         <v>34</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>61</v>
@@ -4002,7 +4006,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>24</v>
@@ -4010,26 +4014,26 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4037,23 +4041,23 @@
         <v>34</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,46 +4065,62 @@
         <v>20</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4122,8 +4142,8 @@
   </sheetPr>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q2" activeCellId="0" sqref="Q2:Q29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5920,8 +5940,8 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="Q2:Q29 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6135,7 +6155,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q2:Q29 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6224,10 +6244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="Q2:Q29 C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6254,195 +6274,214 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>86</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B6" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C6" s="0" t="n">
         <v>0.66</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C7" s="0" t="n">
         <v>1.51</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="0" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="B11" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.5</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="0" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="0" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1.51</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="0" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.5</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="0" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="0" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.87</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="0" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="0" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3"/>
+      <c r="B22" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3"/>
+      <c r="B23" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A21"/>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A23"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/cicat/cvss-example/SCENARIO-new-fake.xlsx
+++ b/cicat/cvss-example/SCENARIO-new-fake.xlsx
@@ -6247,7 +6247,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6282,7 +6282,7 @@
         <v>86</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.22</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6291,7 +6291,7 @@
         <v>83</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6300,7 +6300,7 @@
         <v>72</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
